--- a/data/trans_dic/P78C6_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78C6_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>65,69%</t>
+          <t>59,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>78,19%</t>
+          <t>75,05%</t>
         </is>
       </c>
     </row>
@@ -584,19 +584,19 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,83; 82,85</t>
+          <t>33,32; 77,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,55; 89,73</t>
+          <t>56,32; 87,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,66%</t>
+          <t>69,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,64%</t>
+          <t>83,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>77,81%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,9; 88,0</t>
+          <t>46,9; 87,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,64; 93,09</t>
+          <t>66,33; 93,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,78; 87,48</t>
+          <t>64,07; 87,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>82,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>78,22%</t>
+          <t>77,55%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,34; 93,24</t>
+          <t>65,8; 93,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,42; 84,66</t>
+          <t>60,22; 83,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,85; 85,56</t>
+          <t>67,17; 85,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>89,33%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,67%</t>
+          <t>86,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>87,77%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,78; 95,86</t>
+          <t>77,6; 95,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,03; 93,42</t>
+          <t>77,81; 92,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,66; 93,12</t>
+          <t>81,78; 92,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>88,57%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>88,96%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,21; 94,76</t>
+          <t>76,84; 94,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,86; 94,89</t>
+          <t>83,43; 94,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>83,52; 93,31</t>
+          <t>82,45; 92,9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>91,27%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>85,55; 97,28</t>
+          <t>80,04; 96,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,12; 97,61</t>
+          <t>82,85; 96,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,49; 96,66</t>
+          <t>84,53; 95,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>86,33%</t>
+          <t>97,02%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>83,66; 91,69</t>
+          <t>82,86; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,5; 88,58</t>
+          <t>91,94; 99,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>83,23; 88,97</t>
+          <t>91,31; 99,48</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>87,91%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>83,21%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>85,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>82,76; 91,21</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>77,08; 87,54</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>81,78; 88,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
